--- a/output/table/bat_individual_qual.xlsx
+++ b/output/table/bat_individual_qual.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,22 +8,40 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\easyu\ohtani_analyze\output\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0F7C4361-4E30-4A57-BED1-51F350A42318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6739FED-34F0-48B2-9010-3AD108B7AC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bat_individual_qual" sheetId="1" r:id="rId1"/>
-    <sheet name="BattedBall" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="198">
+  <si>
+    <t>name</t>
+  </si>
   <si>
     <t>Team</t>
+  </si>
+  <si>
+    <t>Fastball_pct</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>CStr</t>
+  </si>
+  <si>
+    <t>Swing</t>
+  </si>
+  <si>
+    <t>Contact</t>
   </si>
   <si>
     <t>foul_pct</t>
@@ -562,6 +580,10 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>Zone%</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>CStr%</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -574,36 +596,51 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>Zone%</t>
+    <t>O-Swing%</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>ファウル%</t>
+    <t>Exit Velocity (km/h)</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>打球角度</t>
-    <rPh sb="0" eb="4">
-      <t>ダキュウカクド</t>
-    </rPh>
+    <t>Launch Angle (°)</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>打球速度</t>
-    <rPh sb="0" eb="2">
-      <t>ダキュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ソクド</t>
-    </rPh>
+    <t>Pull%</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Hard%</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Flare%</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Barrel%</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Barrel/PA</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Shifted%</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode=".000"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -772,8 +809,17 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -953,8 +999,26 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1066,6 +1130,26 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1198,11 +1282,41 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="176" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1559,86 +1673,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection sqref="A1:T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>178</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>182</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>179</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>180</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>181</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>183</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>185</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>53.19</v>
@@ -1659,7 +1770,7 @@
         <v>52.5</v>
       </c>
       <c r="I2">
-        <v>91.1</v>
+        <v>146.6</v>
       </c>
       <c r="J2">
         <v>12.9</v>
@@ -1697,10 +1808,10 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>55.48</v>
@@ -1721,7 +1832,7 @@
         <v>42.3</v>
       </c>
       <c r="I3">
-        <v>93</v>
+        <v>149.69999999999999</v>
       </c>
       <c r="J3">
         <v>5.8</v>
@@ -1759,10 +1870,10 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>55.84</v>
@@ -1783,7 +1894,7 @@
         <v>41.2</v>
       </c>
       <c r="I4">
-        <v>95.1</v>
+        <v>153.1</v>
       </c>
       <c r="J4">
         <v>9.4</v>
@@ -1821,10 +1932,10 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>54.41</v>
@@ -1845,7 +1956,7 @@
         <v>52.6</v>
       </c>
       <c r="I5">
-        <v>93.7</v>
+        <v>150.9</v>
       </c>
       <c r="J5">
         <v>13.6</v>
@@ -1883,10 +1994,10 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>49.19</v>
@@ -1907,7 +2018,7 @@
         <v>52.9</v>
       </c>
       <c r="I6">
-        <v>93.2</v>
+        <v>150.1</v>
       </c>
       <c r="J6">
         <v>16.3</v>
@@ -1945,10 +2056,10 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>49.04</v>
@@ -1969,7 +2080,7 @@
         <v>48</v>
       </c>
       <c r="I7">
-        <v>89.8</v>
+        <v>144.6</v>
       </c>
       <c r="J7">
         <v>14</v>
@@ -2007,10 +2118,10 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>55.24</v>
@@ -2031,7 +2142,7 @@
         <v>51.1</v>
       </c>
       <c r="I8">
-        <v>92.9</v>
+        <v>149.6</v>
       </c>
       <c r="J8">
         <v>18.2</v>
@@ -2069,10 +2180,10 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <v>58.6</v>
@@ -2093,7 +2204,7 @@
         <v>53.4</v>
       </c>
       <c r="I9">
-        <v>91.5</v>
+        <v>147.30000000000001</v>
       </c>
       <c r="J9">
         <v>11.9</v>
@@ -2131,10 +2242,10 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C10">
         <v>50.82</v>
@@ -2155,7 +2266,7 @@
         <v>51.3</v>
       </c>
       <c r="I10">
-        <v>89.2</v>
+        <v>143.69999999999999</v>
       </c>
       <c r="J10">
         <v>13.3</v>
@@ -2193,10 +2304,10 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C11">
         <v>50.83</v>
@@ -2217,7 +2328,7 @@
         <v>48.6</v>
       </c>
       <c r="I11">
-        <v>95.7</v>
+        <v>154.1</v>
       </c>
       <c r="J11">
         <v>11.5</v>
@@ -2255,10 +2366,10 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C12">
         <v>54.28</v>
@@ -2279,7 +2390,7 @@
         <v>51.1</v>
       </c>
       <c r="I12">
-        <v>93</v>
+        <v>149.69999999999999</v>
       </c>
       <c r="J12">
         <v>17.899999999999999</v>
@@ -2317,10 +2428,10 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>57.74</v>
@@ -2341,7 +2452,7 @@
         <v>50.3</v>
       </c>
       <c r="I13">
-        <v>88.8</v>
+        <v>143</v>
       </c>
       <c r="J13">
         <v>15.8</v>
@@ -2379,10 +2490,10 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <v>55.92</v>
@@ -2403,7 +2514,7 @@
         <v>51.9</v>
       </c>
       <c r="I14">
-        <v>91.3</v>
+        <v>147.1</v>
       </c>
       <c r="J14">
         <v>16.899999999999999</v>
@@ -2441,10 +2552,10 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C15">
         <v>54.97</v>
@@ -2465,7 +2576,7 @@
         <v>46.9</v>
       </c>
       <c r="I15">
-        <v>92.6</v>
+        <v>149</v>
       </c>
       <c r="J15">
         <v>17.100000000000001</v>
@@ -2503,10 +2614,10 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C16">
         <v>52.29</v>
@@ -2527,7 +2638,7 @@
         <v>49.6</v>
       </c>
       <c r="I16">
-        <v>88.6</v>
+        <v>142.69999999999999</v>
       </c>
       <c r="J16">
         <v>14.4</v>
@@ -2565,10 +2676,10 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C17">
         <v>51.11</v>
@@ -2589,7 +2700,7 @@
         <v>45.2</v>
       </c>
       <c r="I17">
-        <v>91.2</v>
+        <v>146.80000000000001</v>
       </c>
       <c r="J17">
         <v>15.2</v>
@@ -2627,10 +2738,10 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C18">
         <v>66.790000000000006</v>
@@ -2651,7 +2762,7 @@
         <v>51.3</v>
       </c>
       <c r="I18">
-        <v>92.9</v>
+        <v>149.5</v>
       </c>
       <c r="J18">
         <v>14.1</v>
@@ -2689,10 +2800,10 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>57.11</v>
@@ -2713,7 +2824,7 @@
         <v>51.8</v>
       </c>
       <c r="I19">
-        <v>90.4</v>
+        <v>145.5</v>
       </c>
       <c r="J19">
         <v>14.1</v>
@@ -2751,10 +2862,10 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C20">
         <v>56.15</v>
@@ -2775,7 +2886,7 @@
         <v>48.7</v>
       </c>
       <c r="I20">
-        <v>95.2</v>
+        <v>153.30000000000001</v>
       </c>
       <c r="J20">
         <v>10.4</v>
@@ -2813,10 +2924,10 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C21">
         <v>55.81</v>
@@ -2837,7 +2948,7 @@
         <v>48.7</v>
       </c>
       <c r="I21">
-        <v>91.8</v>
+        <v>147.80000000000001</v>
       </c>
       <c r="J21">
         <v>13.1</v>
@@ -2875,10 +2986,10 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C22">
         <v>57.07</v>
@@ -2899,7 +3010,7 @@
         <v>52.7</v>
       </c>
       <c r="I22">
-        <v>91.5</v>
+        <v>147.30000000000001</v>
       </c>
       <c r="J22">
         <v>16</v>
@@ -2937,10 +3048,10 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
         <v>51</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
       </c>
       <c r="C23">
         <v>55.69</v>
@@ -2961,7 +3072,7 @@
         <v>51.6</v>
       </c>
       <c r="I23">
-        <v>89.8</v>
+        <v>144.6</v>
       </c>
       <c r="J23">
         <v>12.6</v>
@@ -2999,10 +3110,10 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C24">
         <v>54.66</v>
@@ -3023,7 +3134,7 @@
         <v>49.8</v>
       </c>
       <c r="I24">
-        <v>93.2</v>
+        <v>150</v>
       </c>
       <c r="J24">
         <v>14.5</v>
@@ -3061,10 +3172,10 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C25">
         <v>55.75</v>
@@ -3085,7 +3196,7 @@
         <v>52.5</v>
       </c>
       <c r="I25">
-        <v>92.3</v>
+        <v>148.6</v>
       </c>
       <c r="J25">
         <v>16.7</v>
@@ -3123,10 +3234,10 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C26">
         <v>53.79</v>
@@ -3147,7 +3258,7 @@
         <v>47.1</v>
       </c>
       <c r="I26">
-        <v>89.4</v>
+        <v>143.9</v>
       </c>
       <c r="J26">
         <v>10.7</v>
@@ -3185,10 +3296,10 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C27">
         <v>60.43</v>
@@ -3209,7 +3320,7 @@
         <v>47.6</v>
       </c>
       <c r="I27">
-        <v>88.2</v>
+        <v>142.1</v>
       </c>
       <c r="J27">
         <v>13.7</v>
@@ -3247,10 +3358,10 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C28">
         <v>59</v>
@@ -3271,7 +3382,7 @@
         <v>47.5</v>
       </c>
       <c r="I28">
-        <v>90.4</v>
+        <v>145.6</v>
       </c>
       <c r="J28">
         <v>18.899999999999999</v>
@@ -3309,10 +3420,10 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C29">
         <v>56.24</v>
@@ -3333,7 +3444,7 @@
         <v>48</v>
       </c>
       <c r="I29">
-        <v>86.7</v>
+        <v>139.6</v>
       </c>
       <c r="J29">
         <v>4</v>
@@ -3371,10 +3482,10 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C30">
         <v>51.48</v>
@@ -3395,7 +3506,7 @@
         <v>51.1</v>
       </c>
       <c r="I30">
-        <v>89.9</v>
+        <v>144.69999999999999</v>
       </c>
       <c r="J30">
         <v>18.2</v>
@@ -3433,10 +3544,10 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C31">
         <v>60.14</v>
@@ -3457,7 +3568,7 @@
         <v>47.6</v>
       </c>
       <c r="I31">
-        <v>91</v>
+        <v>146.5</v>
       </c>
       <c r="J31">
         <v>14.7</v>
@@ -3495,10 +3606,10 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C32">
         <v>55.77</v>
@@ -3519,7 +3630,7 @@
         <v>47.2</v>
       </c>
       <c r="I32">
-        <v>87.5</v>
+        <v>140.9</v>
       </c>
       <c r="J32">
         <v>12.9</v>
@@ -3557,10 +3668,10 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C33">
         <v>53.76</v>
@@ -3581,7 +3692,7 @@
         <v>50.2</v>
       </c>
       <c r="I33">
-        <v>88</v>
+        <v>141.69999999999999</v>
       </c>
       <c r="J33">
         <v>15</v>
@@ -3619,10 +3730,10 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C34">
         <v>55.97</v>
@@ -3643,7 +3754,7 @@
         <v>49.5</v>
       </c>
       <c r="I34">
-        <v>89.7</v>
+        <v>144.5</v>
       </c>
       <c r="J34">
         <v>20.399999999999999</v>
@@ -3681,10 +3792,10 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C35">
         <v>52.66</v>
@@ -3705,7 +3816,7 @@
         <v>47.3</v>
       </c>
       <c r="I35">
-        <v>92.5</v>
+        <v>148.9</v>
       </c>
       <c r="J35">
         <v>4.9000000000000004</v>
@@ -3743,10 +3854,10 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C36">
         <v>58.15</v>
@@ -3767,7 +3878,7 @@
         <v>48.1</v>
       </c>
       <c r="I36">
-        <v>89.9</v>
+        <v>144.80000000000001</v>
       </c>
       <c r="J36">
         <v>11.5</v>
@@ -3805,10 +3916,10 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C37">
         <v>49.83</v>
@@ -3829,7 +3940,7 @@
         <v>49.8</v>
       </c>
       <c r="I37">
-        <v>93</v>
+        <v>149.80000000000001</v>
       </c>
       <c r="J37">
         <v>15.9</v>
@@ -3867,10 +3978,10 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C38">
         <v>55.72</v>
@@ -3891,7 +4002,7 @@
         <v>51.6</v>
       </c>
       <c r="I38">
-        <v>89.6</v>
+        <v>144.30000000000001</v>
       </c>
       <c r="J38">
         <v>7.8</v>
@@ -3929,10 +4040,10 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C39">
         <v>54.76</v>
@@ -3953,7 +4064,7 @@
         <v>47.6</v>
       </c>
       <c r="I39">
-        <v>86.4</v>
+        <v>139.1</v>
       </c>
       <c r="J39">
         <v>15.8</v>
@@ -3991,10 +4102,10 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C40">
         <v>58.98</v>
@@ -4015,7 +4126,7 @@
         <v>50.6</v>
       </c>
       <c r="I40">
-        <v>88.5</v>
+        <v>142.5</v>
       </c>
       <c r="J40">
         <v>11</v>
@@ -4053,10 +4164,10 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C41">
         <v>58.93</v>
@@ -4077,7 +4188,7 @@
         <v>42.3</v>
       </c>
       <c r="I41">
-        <v>89.8</v>
+        <v>144.6</v>
       </c>
       <c r="J41">
         <v>13.2</v>
@@ -4115,10 +4226,10 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C42">
         <v>58.4</v>
@@ -4139,7 +4250,7 @@
         <v>51</v>
       </c>
       <c r="I42">
-        <v>92</v>
+        <v>148.1</v>
       </c>
       <c r="J42">
         <v>10.3</v>
@@ -4177,10 +4288,10 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C43">
         <v>49.69</v>
@@ -4201,7 +4312,7 @@
         <v>49.4</v>
       </c>
       <c r="I43">
-        <v>89.8</v>
+        <v>144.5</v>
       </c>
       <c r="J43">
         <v>7.8</v>
@@ -4239,10 +4350,10 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C44">
         <v>59.47</v>
@@ -4263,7 +4374,7 @@
         <v>47</v>
       </c>
       <c r="I44">
-        <v>90.7</v>
+        <v>146.1</v>
       </c>
       <c r="J44">
         <v>18.2</v>
@@ -4301,10 +4412,10 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C45">
         <v>55.27</v>
@@ -4325,7 +4436,7 @@
         <v>51.5</v>
       </c>
       <c r="I45">
-        <v>89.5</v>
+        <v>144.1</v>
       </c>
       <c r="J45">
         <v>4</v>
@@ -4363,10 +4474,10 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C46">
         <v>60.1</v>
@@ -4387,7 +4498,7 @@
         <v>55.2</v>
       </c>
       <c r="I46">
-        <v>91.4</v>
+        <v>147.19999999999999</v>
       </c>
       <c r="J46">
         <v>7.3</v>
@@ -4425,10 +4536,10 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C47">
         <v>49.92</v>
@@ -4449,7 +4560,7 @@
         <v>53.3</v>
       </c>
       <c r="I47">
-        <v>89.1</v>
+        <v>143.5</v>
       </c>
       <c r="J47">
         <v>16.2</v>
@@ -4487,10 +4598,10 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C48">
         <v>56.21</v>
@@ -4511,7 +4622,7 @@
         <v>51.8</v>
       </c>
       <c r="I48">
-        <v>89.5</v>
+        <v>144.1</v>
       </c>
       <c r="J48">
         <v>16.899999999999999</v>
@@ -4549,10 +4660,10 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C49">
         <v>53.44</v>
@@ -4573,7 +4684,7 @@
         <v>51</v>
       </c>
       <c r="I49">
-        <v>88.3</v>
+        <v>142.1</v>
       </c>
       <c r="J49">
         <v>18.600000000000001</v>
@@ -4611,10 +4722,10 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C50">
         <v>53.27</v>
@@ -4635,7 +4746,7 @@
         <v>51.3</v>
       </c>
       <c r="I50">
-        <v>89.7</v>
+        <v>144.4</v>
       </c>
       <c r="J50">
         <v>10.9</v>
@@ -4673,10 +4784,10 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C51">
         <v>55.72</v>
@@ -4697,7 +4808,7 @@
         <v>48</v>
       </c>
       <c r="I51">
-        <v>94.1</v>
+        <v>151.5</v>
       </c>
       <c r="J51">
         <v>14.6</v>
@@ -4735,10 +4846,10 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C52">
         <v>58.09</v>
@@ -4759,7 +4870,7 @@
         <v>41.8</v>
       </c>
       <c r="I52">
-        <v>93</v>
+        <v>149.69999999999999</v>
       </c>
       <c r="J52">
         <v>13.9</v>
@@ -4797,10 +4908,10 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C53">
         <v>59.31</v>
@@ -4821,7 +4932,7 @@
         <v>50.4</v>
       </c>
       <c r="I53">
-        <v>90.7</v>
+        <v>146.1</v>
       </c>
       <c r="J53">
         <v>18.5</v>
@@ -4859,10 +4970,10 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B54" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C54">
         <v>59.26</v>
@@ -4883,7 +4994,7 @@
         <v>44.6</v>
       </c>
       <c r="I54">
-        <v>89.5</v>
+        <v>144.1</v>
       </c>
       <c r="J54">
         <v>9.4</v>
@@ -4921,10 +5032,10 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C55">
         <v>54.27</v>
@@ -4945,7 +5056,7 @@
         <v>47.5</v>
       </c>
       <c r="I55">
-        <v>92.4</v>
+        <v>148.80000000000001</v>
       </c>
       <c r="J55">
         <v>11.8</v>
@@ -4983,10 +5094,10 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B56" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C56">
         <v>54.53</v>
@@ -5007,7 +5118,7 @@
         <v>53.6</v>
       </c>
       <c r="I56">
-        <v>88.6</v>
+        <v>142.6</v>
       </c>
       <c r="J56">
         <v>12.5</v>
@@ -5045,10 +5156,10 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B57" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C57">
         <v>58.15</v>
@@ -5069,7 +5180,7 @@
         <v>51.5</v>
       </c>
       <c r="I57">
-        <v>87.3</v>
+        <v>140.5</v>
       </c>
       <c r="J57">
         <v>17.3</v>
@@ -5107,10 +5218,10 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C58">
         <v>64.48</v>
@@ -5131,7 +5242,7 @@
         <v>46.3</v>
       </c>
       <c r="I58">
-        <v>88.1</v>
+        <v>141.80000000000001</v>
       </c>
       <c r="J58">
         <v>12</v>
@@ -5169,10 +5280,10 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C59">
         <v>61</v>
@@ -5193,7 +5304,7 @@
         <v>49</v>
       </c>
       <c r="I59">
-        <v>86.8</v>
+        <v>139.80000000000001</v>
       </c>
       <c r="J59">
         <v>5.9</v>
@@ -5231,10 +5342,10 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B60" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C60">
         <v>54.08</v>
@@ -5255,7 +5366,7 @@
         <v>48.6</v>
       </c>
       <c r="I60">
-        <v>90.2</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="J60">
         <v>8.8000000000000007</v>
@@ -5293,10 +5404,10 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B61" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C61">
         <v>53.05</v>
@@ -5317,7 +5428,7 @@
         <v>48.4</v>
       </c>
       <c r="I61">
-        <v>89.3</v>
+        <v>143.69999999999999</v>
       </c>
       <c r="J61">
         <v>14.8</v>
@@ -5355,10 +5466,10 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B62" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C62">
         <v>59.67</v>
@@ -5379,7 +5490,7 @@
         <v>48.5</v>
       </c>
       <c r="I62">
-        <v>90</v>
+        <v>144.9</v>
       </c>
       <c r="J62">
         <v>14.8</v>
@@ -5417,10 +5528,10 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B63" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C63">
         <v>58.45</v>
@@ -5441,7 +5552,7 @@
         <v>54.3</v>
       </c>
       <c r="I63">
-        <v>90.6</v>
+        <v>145.80000000000001</v>
       </c>
       <c r="J63">
         <v>17.399999999999999</v>
@@ -5479,10 +5590,10 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B64" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C64">
         <v>56.59</v>
@@ -5503,7 +5614,7 @@
         <v>47.6</v>
       </c>
       <c r="I64">
-        <v>90.3</v>
+        <v>145.30000000000001</v>
       </c>
       <c r="J64">
         <v>15.7</v>
@@ -5541,10 +5652,10 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B65" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C65">
         <v>59.73</v>
@@ -5565,7 +5676,7 @@
         <v>51.5</v>
       </c>
       <c r="I65">
-        <v>87.8</v>
+        <v>141.30000000000001</v>
       </c>
       <c r="J65">
         <v>13.8</v>
@@ -5603,10 +5714,10 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B66" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C66">
         <v>60.5</v>
@@ -5627,7 +5738,7 @@
         <v>52.5</v>
       </c>
       <c r="I66">
-        <v>90</v>
+        <v>144.80000000000001</v>
       </c>
       <c r="J66">
         <v>11.6</v>
@@ -5665,10 +5776,10 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B67" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C67">
         <v>57.91</v>
@@ -5689,7 +5800,7 @@
         <v>52.2</v>
       </c>
       <c r="I67">
-        <v>87.3</v>
+        <v>140.6</v>
       </c>
       <c r="J67">
         <v>13.5</v>
@@ -5727,10 +5838,10 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B68" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C68">
         <v>54.9</v>
@@ -5751,7 +5862,7 @@
         <v>54.3</v>
       </c>
       <c r="I68">
-        <v>89.8</v>
+        <v>144.6</v>
       </c>
       <c r="J68">
         <v>21</v>
@@ -5789,10 +5900,10 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B69" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C69">
         <v>67.819999999999993</v>
@@ -5813,7 +5924,7 @@
         <v>54.8</v>
       </c>
       <c r="I69">
-        <v>90.8</v>
+        <v>146.19999999999999</v>
       </c>
       <c r="J69">
         <v>5</v>
@@ -5851,10 +5962,10 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C70">
         <v>59.36</v>
@@ -5875,7 +5986,7 @@
         <v>48.5</v>
       </c>
       <c r="I70">
-        <v>89.5</v>
+        <v>144.1</v>
       </c>
       <c r="J70">
         <v>10.199999999999999</v>
@@ -5913,10 +6024,10 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B71" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C71">
         <v>59.42</v>
@@ -5937,7 +6048,7 @@
         <v>50.2</v>
       </c>
       <c r="I71">
-        <v>87.3</v>
+        <v>140.6</v>
       </c>
       <c r="J71">
         <v>20.5</v>
@@ -5975,10 +6086,10 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C72">
         <v>55.82</v>
@@ -5999,7 +6110,7 @@
         <v>52.2</v>
       </c>
       <c r="I72">
-        <v>89.6</v>
+        <v>144.19999999999999</v>
       </c>
       <c r="J72">
         <v>11.5</v>
@@ -6037,10 +6148,10 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B73" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C73">
         <v>59.52</v>
@@ -6061,7 +6172,7 @@
         <v>47.2</v>
       </c>
       <c r="I73">
-        <v>85</v>
+        <v>136.9</v>
       </c>
       <c r="J73">
         <v>12</v>
@@ -6099,10 +6210,10 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B74" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C74">
         <v>59.27</v>
@@ -6123,7 +6234,7 @@
         <v>52.3</v>
       </c>
       <c r="I74">
-        <v>86.8</v>
+        <v>139.80000000000001</v>
       </c>
       <c r="J74">
         <v>20.5</v>
@@ -6161,10 +6272,10 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C75">
         <v>53.51</v>
@@ -6185,7 +6296,7 @@
         <v>50.1</v>
       </c>
       <c r="I75">
-        <v>87.7</v>
+        <v>141.30000000000001</v>
       </c>
       <c r="J75">
         <v>14.3</v>
@@ -6223,10 +6334,10 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B76" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C76">
         <v>59.09</v>
@@ -6247,7 +6358,7 @@
         <v>47.1</v>
       </c>
       <c r="I76">
-        <v>90.2</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="J76">
         <v>7.7</v>
@@ -6285,10 +6396,10 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B77" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C77">
         <v>56.92</v>
@@ -6309,7 +6420,7 @@
         <v>46.2</v>
       </c>
       <c r="I77">
-        <v>89.6</v>
+        <v>144.19999999999999</v>
       </c>
       <c r="J77">
         <v>19</v>
@@ -6347,10 +6458,10 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C78">
         <v>56.63</v>
@@ -6371,7 +6482,7 @@
         <v>45</v>
       </c>
       <c r="I78">
-        <v>88.8</v>
+        <v>143</v>
       </c>
       <c r="J78">
         <v>20</v>
@@ -6409,10 +6520,10 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C79">
         <v>50.98</v>
@@ -6433,7 +6544,7 @@
         <v>50</v>
       </c>
       <c r="I79">
-        <v>93.4</v>
+        <v>150.4</v>
       </c>
       <c r="J79">
         <v>17.600000000000001</v>
@@ -6471,10 +6582,10 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B80" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C80">
         <v>50.33</v>
@@ -6495,7 +6606,7 @@
         <v>50.2</v>
       </c>
       <c r="I80">
-        <v>91.4</v>
+        <v>147.19999999999999</v>
       </c>
       <c r="J80">
         <v>15.5</v>
@@ -6533,10 +6644,10 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B81" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C81">
         <v>54.64</v>
@@ -6557,7 +6668,7 @@
         <v>54.4</v>
       </c>
       <c r="I81">
-        <v>89.1</v>
+        <v>143.4</v>
       </c>
       <c r="J81">
         <v>16.3</v>
@@ -6595,10 +6706,10 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B82" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C82">
         <v>61.29</v>
@@ -6619,7 +6730,7 @@
         <v>46.5</v>
       </c>
       <c r="I82">
-        <v>87.6</v>
+        <v>141</v>
       </c>
       <c r="J82">
         <v>10.199999999999999</v>
@@ -6657,10 +6768,10 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B83" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C83">
         <v>54.94</v>
@@ -6681,7 +6792,7 @@
         <v>48.8</v>
       </c>
       <c r="I83">
-        <v>88.8</v>
+        <v>143</v>
       </c>
       <c r="J83">
         <v>14.6</v>
@@ -6719,10 +6830,10 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B84" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C84">
         <v>58.68</v>
@@ -6743,7 +6854,7 @@
         <v>50.1</v>
       </c>
       <c r="I84">
-        <v>89.1</v>
+        <v>143.4</v>
       </c>
       <c r="J84">
         <v>15.3</v>
@@ -6781,10 +6892,10 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B85" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C85">
         <v>53.67</v>
@@ -6805,7 +6916,7 @@
         <v>53.7</v>
       </c>
       <c r="I85">
-        <v>89.1</v>
+        <v>143.4</v>
       </c>
       <c r="J85">
         <v>19.899999999999999</v>
@@ -6843,10 +6954,10 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B86" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C86">
         <v>58.29</v>
@@ -6867,7 +6978,7 @@
         <v>51.6</v>
       </c>
       <c r="I86">
-        <v>87.9</v>
+        <v>141.6</v>
       </c>
       <c r="J86">
         <v>8.1</v>
@@ -6905,10 +7016,10 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B87" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C87">
         <v>58.29</v>
@@ -6929,7 +7040,7 @@
         <v>51.5</v>
       </c>
       <c r="I87">
-        <v>90.2</v>
+        <v>145.1</v>
       </c>
       <c r="J87">
         <v>14.2</v>
@@ -6967,10 +7078,10 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B88" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C88">
         <v>59.47</v>
@@ -6991,7 +7102,7 @@
         <v>51.5</v>
       </c>
       <c r="I88">
-        <v>88.9</v>
+        <v>143.1</v>
       </c>
       <c r="J88">
         <v>9.6</v>
@@ -7029,10 +7140,10 @@
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B89" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C89">
         <v>61.62</v>
@@ -7053,7 +7164,7 @@
         <v>44.7</v>
       </c>
       <c r="I89">
-        <v>84.3</v>
+        <v>135.80000000000001</v>
       </c>
       <c r="J89">
         <v>0.7</v>
@@ -7091,10 +7202,10 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B90" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C90">
         <v>57.81</v>
@@ -7115,7 +7226,7 @@
         <v>51</v>
       </c>
       <c r="I90">
-        <v>89.3</v>
+        <v>143.80000000000001</v>
       </c>
       <c r="J90">
         <v>21.5</v>
@@ -7153,10 +7264,10 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B91" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C91">
         <v>63.16</v>
@@ -7177,7 +7288,7 @@
         <v>44.5</v>
       </c>
       <c r="I91">
-        <v>89.8</v>
+        <v>144.6</v>
       </c>
       <c r="J91">
         <v>6.8</v>
@@ -7215,10 +7326,10 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B92" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C92">
         <v>52.68</v>
@@ -7239,7 +7350,7 @@
         <v>43.1</v>
       </c>
       <c r="I92">
-        <v>88.4</v>
+        <v>142.4</v>
       </c>
       <c r="J92">
         <v>12.2</v>
@@ -7277,10 +7388,10 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C93">
         <v>57.5</v>
@@ -7301,7 +7412,7 @@
         <v>50.2</v>
       </c>
       <c r="I93">
-        <v>88.1</v>
+        <v>141.9</v>
       </c>
       <c r="J93">
         <v>10.7</v>
@@ -7339,10 +7450,10 @@
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B94" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C94">
         <v>58.82</v>
@@ -7363,7 +7474,7 @@
         <v>47.9</v>
       </c>
       <c r="I94">
-        <v>87</v>
+        <v>140.1</v>
       </c>
       <c r="J94">
         <v>14.6</v>
@@ -7401,10 +7512,10 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B95" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C95">
         <v>53.85</v>
@@ -7425,7 +7536,7 @@
         <v>47.4</v>
       </c>
       <c r="I95">
-        <v>88.9</v>
+        <v>143.19999999999999</v>
       </c>
       <c r="J95">
         <v>9.6</v>
@@ -7463,10 +7574,10 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B96" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C96">
         <v>55.91</v>
@@ -7487,7 +7598,7 @@
         <v>48.6</v>
       </c>
       <c r="I96">
-        <v>90.3</v>
+        <v>145.4</v>
       </c>
       <c r="J96">
         <v>3</v>
@@ -7525,10 +7636,10 @@
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B97" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C97">
         <v>61.2</v>
@@ -7549,7 +7660,7 @@
         <v>48</v>
       </c>
       <c r="I97">
-        <v>90.8</v>
+        <v>146.19999999999999</v>
       </c>
       <c r="J97">
         <v>7.6</v>
@@ -7587,10 +7698,10 @@
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B98" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C98">
         <v>52.4</v>
@@ -7611,7 +7722,7 @@
         <v>48.6</v>
       </c>
       <c r="I98">
-        <v>89.3</v>
+        <v>143.80000000000001</v>
       </c>
       <c r="J98">
         <v>14.7</v>
@@ -7649,10 +7760,10 @@
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B99" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C99">
         <v>66.88</v>
@@ -7673,7 +7784,7 @@
         <v>48</v>
       </c>
       <c r="I99">
-        <v>87.5</v>
+        <v>140.9</v>
       </c>
       <c r="J99">
         <v>11.6</v>
@@ -7711,10 +7822,10 @@
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B100" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C100">
         <v>55.61</v>
@@ -7735,7 +7846,7 @@
         <v>44.3</v>
       </c>
       <c r="I100">
-        <v>88.8</v>
+        <v>143</v>
       </c>
       <c r="J100">
         <v>5.6</v>
@@ -7773,10 +7884,10 @@
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B101" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C101">
         <v>59.68</v>
@@ -7797,7 +7908,7 @@
         <v>50.8</v>
       </c>
       <c r="I101">
-        <v>87.1</v>
+        <v>140.30000000000001</v>
       </c>
       <c r="J101">
         <v>6.5</v>
@@ -7835,10 +7946,10 @@
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B102" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C102">
         <v>55.65</v>
@@ -7859,7 +7970,7 @@
         <v>52.7</v>
       </c>
       <c r="I102">
-        <v>89</v>
+        <v>143.30000000000001</v>
       </c>
       <c r="J102">
         <v>23.8</v>
@@ -7897,10 +8008,10 @@
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B103" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C103">
         <v>64.98</v>
@@ -7921,7 +8032,7 @@
         <v>50.4</v>
       </c>
       <c r="I103">
-        <v>86.4</v>
+        <v>139.1</v>
       </c>
       <c r="J103">
         <v>12</v>
@@ -7959,10 +8070,10 @@
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B104" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C104">
         <v>56.98</v>
@@ -7983,7 +8094,7 @@
         <v>54.3</v>
       </c>
       <c r="I104">
-        <v>90.8</v>
+        <v>146.1</v>
       </c>
       <c r="J104">
         <v>14.6</v>
@@ -8021,10 +8132,10 @@
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B105" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C105">
         <v>57.13</v>
@@ -8045,7 +8156,7 @@
         <v>46.3</v>
       </c>
       <c r="I105">
-        <v>89.3</v>
+        <v>143.80000000000001</v>
       </c>
       <c r="J105">
         <v>5.3</v>
@@ -8083,10 +8194,10 @@
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B106" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C106">
         <v>56.7</v>
@@ -8107,7 +8218,7 @@
         <v>45.2</v>
       </c>
       <c r="I106">
-        <v>87.1</v>
+        <v>140.30000000000001</v>
       </c>
       <c r="J106">
         <v>8.8000000000000007</v>
@@ -8145,10 +8256,10 @@
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B107" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C107">
         <v>55.53</v>
@@ -8169,7 +8280,7 @@
         <v>51.6</v>
       </c>
       <c r="I107">
-        <v>89.1</v>
+        <v>143.5</v>
       </c>
       <c r="J107">
         <v>13</v>
@@ -8207,10 +8318,10 @@
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B108" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C108">
         <v>52.65</v>
@@ -8231,7 +8342,7 @@
         <v>49.9</v>
       </c>
       <c r="I108">
-        <v>89.3</v>
+        <v>143.80000000000001</v>
       </c>
       <c r="J108">
         <v>8.6</v>
@@ -8269,10 +8380,10 @@
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B109" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C109">
         <v>56.22</v>
@@ -8293,7 +8404,7 @@
         <v>51.8</v>
       </c>
       <c r="I109">
-        <v>88.7</v>
+        <v>142.80000000000001</v>
       </c>
       <c r="J109">
         <v>19.8</v>
@@ -8331,10 +8442,10 @@
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B110" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C110">
         <v>64.400000000000006</v>
@@ -8355,7 +8466,7 @@
         <v>45.1</v>
       </c>
       <c r="I110">
-        <v>90.6</v>
+        <v>145.80000000000001</v>
       </c>
       <c r="J110">
         <v>5</v>
@@ -8393,10 +8504,10 @@
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B111" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C111">
         <v>55.86</v>
@@ -8417,7 +8528,7 @@
         <v>48.9</v>
       </c>
       <c r="I111">
-        <v>87.1</v>
+        <v>140.30000000000001</v>
       </c>
       <c r="J111">
         <v>15.6</v>
@@ -8455,10 +8566,10 @@
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B112" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C112">
         <v>57.65</v>
@@ -8479,7 +8590,7 @@
         <v>49.5</v>
       </c>
       <c r="I112">
-        <v>90.7</v>
+        <v>146.1</v>
       </c>
       <c r="J112">
         <v>16.399999999999999</v>
@@ -8517,10 +8628,10 @@
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B113" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C113">
         <v>60.12</v>
@@ -8541,7 +8652,7 @@
         <v>42.1</v>
       </c>
       <c r="I113">
-        <v>86</v>
+        <v>138.4</v>
       </c>
       <c r="J113">
         <v>11.3</v>
@@ -8579,10 +8690,10 @@
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B114" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C114">
         <v>62.67</v>
@@ -8603,7 +8714,7 @@
         <v>49.9</v>
       </c>
       <c r="I114">
-        <v>85.6</v>
+        <v>137.9</v>
       </c>
       <c r="J114">
         <v>9.5</v>
@@ -8641,10 +8752,10 @@
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B115" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C115">
         <v>57.63</v>
@@ -8665,7 +8776,7 @@
         <v>45.2</v>
       </c>
       <c r="I115">
-        <v>86.4</v>
+        <v>139.1</v>
       </c>
       <c r="J115">
         <v>13.8</v>
@@ -8703,10 +8814,10 @@
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B116" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C116">
         <v>64.22</v>
@@ -8727,7 +8838,7 @@
         <v>50.1</v>
       </c>
       <c r="I116">
-        <v>85.5</v>
+        <v>137.6</v>
       </c>
       <c r="J116">
         <v>-4.7</v>
@@ -8765,10 +8876,10 @@
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B117" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C117">
         <v>62.8</v>
@@ -8789,7 +8900,7 @@
         <v>55.7</v>
       </c>
       <c r="I117">
-        <v>89.7</v>
+        <v>144.30000000000001</v>
       </c>
       <c r="J117">
         <v>18.600000000000001</v>
@@ -8827,10 +8938,10 @@
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B118" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C118">
         <v>59.22</v>
@@ -8851,7 +8962,7 @@
         <v>47</v>
       </c>
       <c r="I118">
-        <v>86.9</v>
+        <v>139.9</v>
       </c>
       <c r="J118">
         <v>9.1999999999999993</v>
@@ -8889,10 +9000,10 @@
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B119" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C119">
         <v>47.69</v>
@@ -8913,7 +9024,7 @@
         <v>48.6</v>
       </c>
       <c r="I119">
-        <v>88.7</v>
+        <v>142.9</v>
       </c>
       <c r="J119">
         <v>19</v>
@@ -8951,10 +9062,10 @@
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B120" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C120">
         <v>59.66</v>
@@ -8975,7 +9086,7 @@
         <v>49.9</v>
       </c>
       <c r="I120">
-        <v>91.4</v>
+        <v>147.1</v>
       </c>
       <c r="J120">
         <v>10</v>
@@ -9013,10 +9124,10 @@
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B121" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C121">
         <v>56.42</v>
@@ -9037,7 +9148,7 @@
         <v>47.9</v>
       </c>
       <c r="I121">
-        <v>86.9</v>
+        <v>140</v>
       </c>
       <c r="J121">
         <v>14.2</v>
@@ -9075,10 +9186,10 @@
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B122" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C122">
         <v>59.69</v>
@@ -9099,7 +9210,7 @@
         <v>50.1</v>
       </c>
       <c r="I122">
-        <v>86.3</v>
+        <v>139</v>
       </c>
       <c r="J122">
         <v>9.6</v>
@@ -9137,10 +9248,10 @@
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B123" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C123">
         <v>56.75</v>
@@ -9161,7 +9272,7 @@
         <v>51.9</v>
       </c>
       <c r="I123">
-        <v>89.1</v>
+        <v>143.4</v>
       </c>
       <c r="J123">
         <v>18.3</v>
@@ -9199,10 +9310,10 @@
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B124" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C124">
         <v>56.24</v>
@@ -9223,7 +9334,7 @@
         <v>49.4</v>
       </c>
       <c r="I124">
-        <v>85.4</v>
+        <v>137.4</v>
       </c>
       <c r="J124">
         <v>11.3</v>
@@ -9261,10 +9372,10 @@
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B125" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C125">
         <v>55.94</v>
@@ -9285,7 +9396,7 @@
         <v>48.5</v>
       </c>
       <c r="I125">
-        <v>86.4</v>
+        <v>139.19999999999999</v>
       </c>
       <c r="J125">
         <v>6.2</v>
@@ -9323,10 +9434,10 @@
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B126" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C126">
         <v>59.77</v>
@@ -9347,7 +9458,7 @@
         <v>41.8</v>
       </c>
       <c r="I126">
-        <v>85.4</v>
+        <v>137.4</v>
       </c>
       <c r="J126">
         <v>5.2</v>
@@ -9385,10 +9496,10 @@
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B127" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C127">
         <v>53.99</v>
@@ -9409,7 +9520,7 @@
         <v>48.7</v>
       </c>
       <c r="I127">
-        <v>89.8</v>
+        <v>144.5</v>
       </c>
       <c r="J127">
         <v>16.2</v>
@@ -9447,10 +9558,10 @@
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B128" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C128">
         <v>54.14</v>
@@ -9471,7 +9582,7 @@
         <v>47.7</v>
       </c>
       <c r="I128">
-        <v>89.9</v>
+        <v>144.69999999999999</v>
       </c>
       <c r="J128">
         <v>12.9</v>
@@ -9509,10 +9620,10 @@
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B129" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C129">
         <v>58.97</v>
@@ -9533,7 +9644,7 @@
         <v>52.7</v>
       </c>
       <c r="I129">
-        <v>88.5</v>
+        <v>142.5</v>
       </c>
       <c r="J129">
         <v>12</v>
@@ -9571,10 +9682,10 @@
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B130" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C130">
         <v>48.75</v>
@@ -9595,7 +9706,7 @@
         <v>49.3</v>
       </c>
       <c r="I130">
-        <v>89.9</v>
+        <v>144.69999999999999</v>
       </c>
       <c r="J130">
         <v>15.8</v>
@@ -9633,10 +9744,10 @@
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B131" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C131">
         <v>56.5</v>
@@ -9657,7 +9768,7 @@
         <v>46.5</v>
       </c>
       <c r="I131">
-        <v>86.8</v>
+        <v>139.80000000000001</v>
       </c>
       <c r="J131">
         <v>7.8</v>
@@ -9695,10 +9806,10 @@
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B132" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C132">
         <v>64.11</v>
@@ -9719,7 +9830,7 @@
         <v>38.200000000000003</v>
       </c>
       <c r="I132">
-        <v>81.5</v>
+        <v>131.19999999999999</v>
       </c>
       <c r="J132">
         <v>7.7</v>
@@ -9757,10 +9868,10 @@
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B133" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C133">
         <v>59.35</v>
@@ -9781,7 +9892,7 @@
         <v>35.9</v>
       </c>
       <c r="I133">
-        <v>83.9</v>
+        <v>135.1</v>
       </c>
       <c r="J133">
         <v>9.1</v>
@@ -9824,675 +9935,619 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="N1" sqref="N1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18.75" customWidth="1"/>
-    <col min="3" max="3" width="8.125" customWidth="1"/>
-    <col min="4" max="4" width="7.75" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="9" max="9" width="12.5" customWidth="1"/>
-    <col min="17" max="17" width="11" customWidth="1"/>
+    <col min="2" max="2" width="6.375" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="7.875" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="8" max="8" width="13.75" customWidth="1"/>
+    <col min="9" max="9" width="10.625" customWidth="1"/>
+    <col min="10" max="10" width="7.625" customWidth="1"/>
+    <col min="11" max="11" width="7.5" customWidth="1"/>
+    <col min="12" max="12" width="7.25" customWidth="1"/>
+    <col min="13" max="13" width="8.125" customWidth="1"/>
+    <col min="14" max="14" width="8.25" customWidth="1"/>
+    <col min="15" max="15" width="8.5" customWidth="1"/>
+    <col min="16" max="16" width="10.5" customWidth="1"/>
+    <col min="17" max="17" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+    <row r="1" spans="1:17" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="8">
+        <v>55.48</v>
+      </c>
+      <c r="C2" s="8">
+        <v>47.8</v>
+      </c>
+      <c r="D2" s="8">
+        <v>20</v>
+      </c>
+      <c r="E2" s="8">
+        <v>35</v>
+      </c>
+      <c r="F2" s="8">
+        <v>12.2</v>
+      </c>
+      <c r="G2" s="8">
+        <v>81.8</v>
+      </c>
+      <c r="H2" s="8">
+        <v>149.69999999999999</v>
+      </c>
+      <c r="I2" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="J2" s="8">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="K2" s="8">
+        <v>52.7</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="N2" s="8">
+        <v>23.5</v>
+      </c>
+      <c r="O2" s="8">
+        <v>13.3</v>
+      </c>
+      <c r="P2" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="8">
+        <v>53.19</v>
+      </c>
+      <c r="C3" s="8">
+        <v>45</v>
+      </c>
+      <c r="D3" s="8">
+        <v>11.9</v>
+      </c>
+      <c r="E3" s="8">
+        <v>47.5</v>
+      </c>
+      <c r="F3" s="8">
+        <v>24.7</v>
+      </c>
+      <c r="G3" s="8">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="H3" s="8">
+        <v>146.6</v>
+      </c>
+      <c r="I3" s="8">
+        <v>12.9</v>
+      </c>
+      <c r="J3" s="8">
+        <v>41.1</v>
+      </c>
+      <c r="K3" s="8">
+        <v>49.7</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="N3" s="8">
+        <v>23.9</v>
+      </c>
+      <c r="O3" s="8">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="P3" s="8">
+        <v>11.1</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>80.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="8">
+        <v>55.84</v>
+      </c>
+      <c r="C4" s="8">
+        <v>46.4</v>
+      </c>
+      <c r="D4" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="E4" s="8">
+        <v>47.3</v>
+      </c>
+      <c r="F4" s="8">
+        <v>24.5</v>
+      </c>
+      <c r="G4" s="8">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="H4" s="8">
+        <v>153.1</v>
+      </c>
+      <c r="I4" s="8">
+        <v>9.4</v>
+      </c>
+      <c r="J4" s="8">
+        <v>41.1</v>
+      </c>
+      <c r="K4" s="8">
+        <v>55.2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.314</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="N4" s="8">
+        <v>21.5</v>
+      </c>
+      <c r="O4" s="8">
+        <v>15.2</v>
+      </c>
+      <c r="P4" s="8">
+        <v>10.9</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="8">
+        <v>50.83</v>
+      </c>
+      <c r="C5" s="8">
+        <v>44.2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E5" s="8">
+        <v>42.6</v>
+      </c>
+      <c r="F5" s="8">
+        <v>23.8</v>
+      </c>
+      <c r="G5" s="8">
+        <v>73.3</v>
+      </c>
+      <c r="H5" s="8">
+        <v>154.1</v>
+      </c>
+      <c r="I5" s="8">
+        <v>11.5</v>
+      </c>
+      <c r="J5" s="8">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="K5" s="8">
+        <v>57.9</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="N5" s="8">
+        <v>23.6</v>
+      </c>
+      <c r="O5" s="8">
+        <v>17.8</v>
+      </c>
+      <c r="P5" s="8">
+        <v>11.2</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="8">
+        <v>58.6</v>
+      </c>
+      <c r="C6" s="8">
+        <v>49.1</v>
+      </c>
+      <c r="D6" s="8">
         <v>11</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="E6" s="8">
+        <v>50.7</v>
+      </c>
+      <c r="F6" s="8">
+        <v>25.1</v>
+      </c>
+      <c r="G6" s="8">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="H6" s="8">
+        <v>147.30000000000001</v>
+      </c>
+      <c r="I6" s="8">
+        <v>11.9</v>
+      </c>
+      <c r="J6" s="8">
+        <v>41.1</v>
+      </c>
+      <c r="K6" s="8">
+        <v>46.2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="N6" s="8">
+        <v>31.1</v>
+      </c>
+      <c r="O6" s="8">
+        <v>11.8</v>
+      </c>
+      <c r="P6" s="8">
+        <v>8.4</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>82.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="8">
+        <v>55.24</v>
+      </c>
+      <c r="C7" s="8">
+        <v>47.8</v>
+      </c>
+      <c r="D7" s="8">
+        <v>15.7</v>
+      </c>
+      <c r="E7" s="8">
+        <v>43.9</v>
+      </c>
+      <c r="F7" s="8">
+        <v>21.7</v>
+      </c>
+      <c r="G7" s="8">
+        <v>73.3</v>
+      </c>
+      <c r="H7" s="8">
+        <v>149.6</v>
+      </c>
+      <c r="I7" s="8">
+        <v>18.2</v>
+      </c>
+      <c r="J7" s="8">
+        <v>47.7</v>
+      </c>
+      <c r="K7" s="8">
+        <v>53.2</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="N7" s="8">
+        <v>23.7</v>
+      </c>
+      <c r="O7" s="8">
+        <v>17.2</v>
+      </c>
+      <c r="P7" s="8">
+        <v>10.6</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="8">
+        <v>51.11</v>
+      </c>
+      <c r="C8" s="8">
+        <v>49.1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>20</v>
+      </c>
+      <c r="E8" s="8">
+        <v>37.6</v>
+      </c>
+      <c r="F8" s="8">
+        <v>15.7</v>
+      </c>
+      <c r="G8" s="8">
+        <v>78</v>
+      </c>
+      <c r="H8" s="8">
+        <v>146.80000000000001</v>
+      </c>
+      <c r="I8" s="8">
+        <v>15.2</v>
+      </c>
+      <c r="J8" s="8">
+        <v>46.6</v>
+      </c>
+      <c r="K8" s="8">
+        <v>46.6</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="N8" s="8">
+        <v>19.7</v>
+      </c>
+      <c r="O8" s="8">
+        <v>16.2</v>
+      </c>
+      <c r="P8" s="8">
+        <v>10.4</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="8">
+        <v>49.19</v>
+      </c>
+      <c r="C9" s="8">
+        <v>43.4</v>
+      </c>
+      <c r="D9" s="8">
+        <v>14.4</v>
+      </c>
+      <c r="E9" s="8">
+        <v>45.8</v>
+      </c>
+      <c r="F9" s="8">
+        <v>27.2</v>
+      </c>
+      <c r="G9" s="10">
+        <v>67</v>
+      </c>
+      <c r="H9" s="10">
+        <v>150.1</v>
+      </c>
+      <c r="I9" s="10">
+        <v>16.3</v>
+      </c>
+      <c r="J9" s="10">
+        <v>51.1</v>
+      </c>
+      <c r="K9" s="8">
+        <v>53.4</v>
+      </c>
+      <c r="L9" s="11">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="N9" s="8">
+        <v>20.2</v>
+      </c>
+      <c r="O9" s="10">
+        <v>22.5</v>
+      </c>
+      <c r="P9" s="10">
+        <v>12.6</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="8">
+        <v>54.97</v>
+      </c>
+      <c r="C10" s="8">
+        <v>48.4</v>
+      </c>
+      <c r="D10" s="8">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E10" s="8">
+        <v>44</v>
+      </c>
+      <c r="F10" s="8">
+        <v>24.9</v>
+      </c>
+      <c r="G10" s="8">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="H10" s="8">
+        <v>149</v>
+      </c>
+      <c r="I10" s="8">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="J10" s="8">
+        <v>39.5</v>
+      </c>
+      <c r="K10" s="8">
+        <v>50.8</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="N10" s="8">
+        <v>26.4</v>
+      </c>
+      <c r="O10" s="8">
+        <v>13.5</v>
+      </c>
+      <c r="P10" s="8">
+        <v>9.4</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="9">
+        <v>54.41</v>
+      </c>
+      <c r="C11" s="9">
+        <v>44.1</v>
+      </c>
+      <c r="D11" s="9">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E11" s="9">
+        <v>51.5</v>
+      </c>
+      <c r="F11" s="9">
+        <v>29</v>
+      </c>
+      <c r="G11" s="9">
+        <v>67.3</v>
+      </c>
+      <c r="H11" s="9">
+        <v>150.9</v>
+      </c>
+      <c r="I11" s="9">
+        <v>13.6</v>
+      </c>
+      <c r="J11" s="9">
+        <v>47.4</v>
+      </c>
+      <c r="K11" s="9">
+        <v>55.6</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="N11" s="9">
+        <v>18.8</v>
+      </c>
+      <c r="O11" s="9">
+        <v>21.3</v>
+      </c>
+      <c r="P11" s="9">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2">
-        <v>53.19</v>
-      </c>
-      <c r="D2">
-        <v>11.9</v>
-      </c>
-      <c r="E2">
-        <v>47.5</v>
-      </c>
-      <c r="F2">
-        <v>69.400000000000006</v>
-      </c>
-      <c r="G2">
-        <v>52.5</v>
-      </c>
-      <c r="H2">
-        <v>91.1</v>
-      </c>
-      <c r="I2">
-        <v>12.9</v>
-      </c>
-      <c r="J2">
-        <v>41.1</v>
-      </c>
-      <c r="K2">
-        <v>49.7</v>
-      </c>
-      <c r="L2">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="M2">
-        <v>0.438</v>
-      </c>
-      <c r="N2">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="O2">
-        <v>23.9</v>
-      </c>
-      <c r="P2">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="Q2">
-        <v>11.1</v>
-      </c>
-      <c r="R2">
-        <v>80.3</v>
-      </c>
-      <c r="S2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
-        <v>55.48</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>35</v>
-      </c>
-      <c r="F3">
-        <v>81.8</v>
-      </c>
-      <c r="G3">
-        <v>42.3</v>
-      </c>
-      <c r="H3">
-        <v>93</v>
-      </c>
-      <c r="I3">
-        <v>5.8</v>
-      </c>
-      <c r="J3">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="K3">
-        <v>52.7</v>
-      </c>
-      <c r="L3">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="M3">
-        <v>0.43</v>
-      </c>
-      <c r="N3">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="O3">
-        <v>23.5</v>
-      </c>
-      <c r="P3">
-        <v>13.3</v>
-      </c>
-      <c r="Q3">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="R3">
-        <v>58.9</v>
-      </c>
-      <c r="S3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4">
-        <v>55.84</v>
-      </c>
-      <c r="D4">
-        <v>12.6</v>
-      </c>
-      <c r="E4">
-        <v>47.3</v>
-      </c>
-      <c r="F4">
-        <v>73.900000000000006</v>
-      </c>
-      <c r="G4">
-        <v>41.2</v>
-      </c>
-      <c r="H4">
-        <v>95.1</v>
-      </c>
-      <c r="I4">
-        <v>9.4</v>
-      </c>
-      <c r="J4">
-        <v>41.1</v>
-      </c>
-      <c r="K4">
-        <v>55.2</v>
-      </c>
-      <c r="L4">
-        <v>0.314</v>
-      </c>
-      <c r="M4">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="N4">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="O4">
-        <v>21.5</v>
-      </c>
-      <c r="P4">
-        <v>15.2</v>
-      </c>
-      <c r="Q4">
-        <v>10.9</v>
-      </c>
-      <c r="R4">
-        <v>23.2</v>
-      </c>
-      <c r="S4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5">
-        <v>54.41</v>
-      </c>
-      <c r="D5">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="E5">
-        <v>51.5</v>
-      </c>
-      <c r="F5">
-        <v>67.3</v>
-      </c>
-      <c r="G5">
-        <v>52.6</v>
-      </c>
-      <c r="H5">
-        <v>93.7</v>
-      </c>
-      <c r="I5">
-        <v>13.6</v>
-      </c>
-      <c r="J5">
-        <v>47.4</v>
-      </c>
-      <c r="K5">
-        <v>55.6</v>
-      </c>
-      <c r="L5">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="M5">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="N5">
-        <v>0.39900000000000002</v>
-      </c>
-      <c r="O5">
-        <v>18.8</v>
-      </c>
-      <c r="P5">
-        <v>21.3</v>
-      </c>
-      <c r="Q5">
-        <v>13</v>
-      </c>
-      <c r="R5">
+      <c r="Q11" s="9">
         <v>45.6</v>
       </c>
-      <c r="S5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6">
-        <v>49.19</v>
-      </c>
-      <c r="D6">
-        <v>14.4</v>
-      </c>
-      <c r="E6">
-        <v>45.8</v>
-      </c>
-      <c r="F6">
-        <v>67</v>
-      </c>
-      <c r="G6">
-        <v>52.9</v>
-      </c>
-      <c r="H6">
-        <v>93.2</v>
-      </c>
-      <c r="I6">
-        <v>16.3</v>
-      </c>
-      <c r="J6">
-        <v>51.1</v>
-      </c>
-      <c r="K6">
-        <v>53.4</v>
-      </c>
-      <c r="L6">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="M6">
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="N6">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="O6">
-        <v>20.2</v>
-      </c>
-      <c r="P6">
-        <v>22.5</v>
-      </c>
-      <c r="Q6">
-        <v>12.6</v>
-      </c>
-      <c r="R6">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="S6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7">
-        <v>49.04</v>
-      </c>
-      <c r="D7">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="E7">
-        <v>55</v>
-      </c>
-      <c r="F7">
-        <v>70.8</v>
-      </c>
-      <c r="G7">
-        <v>48</v>
-      </c>
-      <c r="H7">
-        <v>89.8</v>
-      </c>
-      <c r="I7">
-        <v>14</v>
-      </c>
-      <c r="J7">
-        <v>41.3</v>
-      </c>
-      <c r="K7">
-        <v>46.9</v>
-      </c>
-      <c r="L7">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="M7">
-        <v>0.4</v>
-      </c>
-      <c r="N7">
-        <v>0.371</v>
-      </c>
-      <c r="O7">
-        <v>24.3</v>
-      </c>
-      <c r="P7">
-        <v>10.6</v>
-      </c>
-      <c r="Q7">
-        <v>7.6</v>
-      </c>
-      <c r="R7">
-        <v>31.2</v>
-      </c>
-      <c r="S7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8">
-        <v>55.24</v>
-      </c>
-      <c r="D8">
-        <v>15.7</v>
-      </c>
-      <c r="E8">
-        <v>43.9</v>
-      </c>
-      <c r="F8">
-        <v>73.3</v>
-      </c>
-      <c r="G8">
-        <v>51.1</v>
-      </c>
-      <c r="H8">
-        <v>92.9</v>
-      </c>
-      <c r="I8">
-        <v>18.2</v>
-      </c>
-      <c r="J8">
-        <v>47.7</v>
-      </c>
-      <c r="K8">
-        <v>53.2</v>
-      </c>
-      <c r="L8">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="M8">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="N8">
-        <v>0.41099999999999998</v>
-      </c>
-      <c r="O8">
-        <v>23.7</v>
-      </c>
-      <c r="P8">
-        <v>17.2</v>
-      </c>
-      <c r="Q8">
-        <v>10.6</v>
-      </c>
-      <c r="R8">
-        <v>85.5</v>
-      </c>
-      <c r="S8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9">
-        <v>58.6</v>
-      </c>
-      <c r="D9">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>50.7</v>
-      </c>
-      <c r="F9">
-        <v>80.400000000000006</v>
-      </c>
-      <c r="G9">
-        <v>53.4</v>
-      </c>
-      <c r="H9">
-        <v>91.5</v>
-      </c>
-      <c r="I9">
-        <v>11.9</v>
-      </c>
-      <c r="J9">
-        <v>41.1</v>
-      </c>
-      <c r="K9">
-        <v>46.2</v>
-      </c>
-      <c r="L9">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="M9">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="N9">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="O9">
-        <v>31.1</v>
-      </c>
-      <c r="P9">
-        <v>11.8</v>
-      </c>
-      <c r="Q9">
-        <v>8.4</v>
-      </c>
-      <c r="R9">
-        <v>82.4</v>
-      </c>
-      <c r="S9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10">
-        <v>50.82</v>
-      </c>
-      <c r="D10">
-        <v>12.2</v>
-      </c>
-      <c r="E10">
-        <v>48.9</v>
-      </c>
-      <c r="F10">
-        <v>77.5</v>
-      </c>
-      <c r="G10">
-        <v>51.3</v>
-      </c>
-      <c r="H10">
-        <v>89.2</v>
-      </c>
-      <c r="I10">
-        <v>13.3</v>
-      </c>
-      <c r="J10">
-        <v>44.8</v>
-      </c>
-      <c r="K10">
-        <v>40.799999999999997</v>
-      </c>
-      <c r="L10">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="M10">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="N10">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="O10">
-        <v>26.9</v>
-      </c>
-      <c r="P10">
-        <v>10.4</v>
-      </c>
-      <c r="Q10">
-        <v>7.2</v>
-      </c>
-      <c r="R10">
-        <v>50.5</v>
-      </c>
-      <c r="S10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11">
-        <v>50.83</v>
-      </c>
-      <c r="D11">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="E11">
-        <v>42.6</v>
-      </c>
-      <c r="F11">
-        <v>73.3</v>
-      </c>
-      <c r="G11">
-        <v>48.6</v>
-      </c>
-      <c r="H11">
-        <v>95.7</v>
-      </c>
-      <c r="I11">
-        <v>11.5</v>
-      </c>
-      <c r="J11">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="K11">
-        <v>57.9</v>
-      </c>
-      <c r="L11">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="M11">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="N11">
-        <v>0.42</v>
-      </c>
-      <c r="O11">
-        <v>23.6</v>
-      </c>
-      <c r="P11">
-        <v>17.8</v>
-      </c>
-      <c r="Q11">
-        <v>11.2</v>
-      </c>
-      <c r="R11">
-        <v>40.1</v>
-      </c>
-      <c r="S11">
-        <v>2</v>
-      </c>
-    </row>
+    </row>
+    <row r="12" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>